--- a/progetto/results/randomMergeHeapPython/radixBase2.xlsx
+++ b/progetto/results/randomMergeHeapPython/radixBase2.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -364,7 +364,7 @@
         <v>1000</v>
       </c>
       <c r="B2">
-        <v>0.01201939582824707</v>
+        <v>0.01148343086242676</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>1500</v>
       </c>
       <c r="B3">
-        <v>0.01944446563720703</v>
+        <v>0.01941037178039551</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <v>0.02863478660583496</v>
+        <v>0.02782106399536133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>2500</v>
       </c>
       <c r="B5">
-        <v>0.03671550750732422</v>
+        <v>0.03543257713317871</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>3000</v>
       </c>
       <c r="B6">
-        <v>0.04799771308898926</v>
+        <v>0.06354022026062013</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>3500</v>
       </c>
       <c r="B7">
-        <v>0.05223202705383301</v>
+        <v>0.05258464813232422</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>4000</v>
       </c>
       <c r="B8">
-        <v>0.05790996551513673</v>
+        <v>0.06171464920043945</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>4500</v>
       </c>
       <c r="B9">
-        <v>0.07017779350280763</v>
+        <v>0.07322406768798828</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>5000</v>
       </c>
       <c r="B10">
-        <v>0.07685208320617676</v>
+        <v>0.07846713066101074</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>5500</v>
       </c>
       <c r="B11">
-        <v>0.1432783603668213</v>
+        <v>0.08491659164428711</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>6000</v>
       </c>
       <c r="B12">
-        <v>0.1573441028594971</v>
+        <v>0.09759020805358888</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>6500</v>
       </c>
       <c r="B13">
-        <v>0.1175198554992676</v>
+        <v>0.103287935256958</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>7000</v>
       </c>
       <c r="B14">
-        <v>0.1156232357025146</v>
+        <v>0.113245964050293</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>7500</v>
       </c>
       <c r="B15">
-        <v>0.1337192058563232</v>
+        <v>0.1216444969177246</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>8000</v>
       </c>
       <c r="B16">
-        <v>0.1365292072296143</v>
+        <v>0.1274709701538086</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>8500</v>
       </c>
       <c r="B17">
-        <v>0.1507229804992676</v>
+        <v>0.1438131332397461</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>9000</v>
       </c>
       <c r="B18">
-        <v>0.1624350547790527</v>
+        <v>0.1508796215057373</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>9500</v>
       </c>
       <c r="B19">
-        <v>0.1724884510040283</v>
+        <v>0.1588666439056396</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>10000</v>
       </c>
       <c r="B20">
-        <v>0.1739842891693115</v>
+        <v>0.1791734695434571</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>11000</v>
       </c>
       <c r="B21">
-        <v>0.1888415813446045</v>
+        <v>0.1831164360046387</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>12000</v>
       </c>
       <c r="B22">
-        <v>0.2055001258850097</v>
+        <v>0.2023835182189941</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>13000</v>
       </c>
       <c r="B23">
-        <v>0.2197475433349609</v>
+        <v>0.2172200679779053</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>14000</v>
       </c>
       <c r="B24">
-        <v>0.2380976676940918</v>
+        <v>0.2351887226104737</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>15000</v>
       </c>
       <c r="B25">
-        <v>0.2635962963104248</v>
+        <v>0.2533800601959229</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>16000</v>
       </c>
       <c r="B26">
-        <v>0.2791075706481934</v>
+        <v>0.2702324390411377</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>17000</v>
       </c>
       <c r="B27">
-        <v>0.3117518424987793</v>
+        <v>0.3059947490692139</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>18000</v>
       </c>
       <c r="B28">
-        <v>0.6780273914337158</v>
+        <v>0.323427677154541</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>19000</v>
       </c>
       <c r="B29">
-        <v>0.4468710422515869</v>
+        <v>0.3426787853240967</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>20000</v>
       </c>
       <c r="B30">
-        <v>0.3634588718414307</v>
+        <v>0.3570587635040283</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>21000</v>
       </c>
       <c r="B31">
-        <v>0.3822979927062988</v>
+        <v>0.3774855136871338</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>22000</v>
       </c>
       <c r="B32">
-        <v>0.4038386344909668</v>
+        <v>0.3946394920349121</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>23000</v>
       </c>
       <c r="B33">
-        <v>0.5039083957672119</v>
+        <v>0.4155075550079346</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>24000</v>
       </c>
       <c r="B34">
-        <v>0.4799637794494629</v>
+        <v>0.4305899143218994</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>25000</v>
       </c>
       <c r="B35">
-        <v>0.7083430290222168</v>
+        <v>0.4476799964904785</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>26000</v>
       </c>
       <c r="B36">
-        <v>0.5323231220245361</v>
+        <v>0.468599796295166</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>27000</v>
       </c>
       <c r="B37">
-        <v>0.5064094066619873</v>
+        <v>0.4862496852874756</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>28000</v>
       </c>
       <c r="B38">
-        <v>0.5386466979980469</v>
+        <v>0.5050187110900879</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>29000</v>
       </c>
       <c r="B39">
-        <v>0.5740151405334473</v>
+        <v>0.5294053554534912</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>30000</v>
       </c>
       <c r="B40">
-        <v>0.60616135597229</v>
+        <v>0.5383365154266357</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>31000</v>
       </c>
       <c r="B41">
-        <v>0.5657277107238771</v>
+        <v>0.5559916496276855</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>32000</v>
       </c>
       <c r="B42">
-        <v>0.6302802562713623</v>
+        <v>0.5760111808776855</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>33000</v>
       </c>
       <c r="B43">
-        <v>0.6417391300201416</v>
+        <v>0.6312198638916016</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>34000</v>
       </c>
       <c r="B44">
-        <v>0.8160834312438965</v>
+        <v>0.6465089321136475</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>35000</v>
       </c>
       <c r="B45">
-        <v>0.6835997104644775</v>
+        <v>0.6681168079376221</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>36000</v>
       </c>
       <c r="B46">
-        <v>0.699171781539917</v>
+        <v>0.7004752159118652</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>37000</v>
       </c>
       <c r="B47">
-        <v>0.7485551834106445</v>
+        <v>0.7118866443634033</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>38000</v>
       </c>
       <c r="B48">
-        <v>0.7430510520935059</v>
+        <v>0.7261455059051514</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>39000</v>
       </c>
       <c r="B49">
-        <v>0.7582778930664062</v>
+        <v>0.7504265308380127</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>40000</v>
       </c>
       <c r="B50">
-        <v>0.7808294296264648</v>
+        <v>0.7639741897583008</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>41000</v>
       </c>
       <c r="B51">
-        <v>0.7925674915313721</v>
+        <v>0.7843046188354492</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42000</v>
       </c>
       <c r="B52">
-        <v>0.8177070617675781</v>
+        <v>0.8041713237762451</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>43000</v>
       </c>
       <c r="B53">
-        <v>0.8368816375732422</v>
+        <v>0.8226027488708496</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>44000</v>
       </c>
       <c r="B54">
-        <v>0.8866286277770996</v>
+        <v>0.8434462547302246</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>45000</v>
       </c>
       <c r="B55">
-        <v>0.8745238780975342</v>
+        <v>0.8719751834869385</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>46000</v>
       </c>
       <c r="B56">
-        <v>0.9119887351989746</v>
+        <v>0.8807106018066406</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>47000</v>
       </c>
       <c r="B57">
-        <v>0.920445680618286</v>
+        <v>0.9071521759033204</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>48000</v>
       </c>
       <c r="B58">
-        <v>0.9334115982055664</v>
+        <v>0.968618631362915</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>49000</v>
       </c>
       <c r="B59">
-        <v>0.9926941394805908</v>
+        <v>0.946507692337036</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>50000</v>
       </c>
       <c r="B60">
-        <v>0.9612860679626464</v>
+        <v>0.9581522941589355</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>55000</v>
       </c>
       <c r="B61">
-        <v>1.076108455657959</v>
+        <v>1.054121732711792</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>60000</v>
       </c>
       <c r="B62">
-        <v>1.172536134719849</v>
+        <v>1.155503273010254</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>65000</v>
       </c>
       <c r="B63">
-        <v>1.287611484527588</v>
+        <v>1.258539915084839</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>70000</v>
       </c>
       <c r="B64">
-        <v>1.475565671920776</v>
+        <v>1.444813251495361</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>75000</v>
       </c>
       <c r="B65">
-        <v>1.576968908309936</v>
+        <v>1.549999475479126</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>80000</v>
       </c>
       <c r="B66">
-        <v>2.011976718902588</v>
+        <v>1.656972646713257</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>85000</v>
       </c>
       <c r="B67">
-        <v>1.833347320556641</v>
+        <v>1.764140367507935</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>90000</v>
       </c>
       <c r="B68">
-        <v>1.906272888183594</v>
+        <v>1.893263578414917</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,15 +900,7 @@
         <v>95000</v>
       </c>
       <c r="B69">
-        <v>2.041495800018311</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>100000</v>
-      </c>
-      <c r="B70">
-        <v>2.163323402404785</v>
+        <v>2.000757932662964</v>
       </c>
     </row>
   </sheetData>
